--- a/Data/assignmentNameIndex.xlsx
+++ b/Data/assignmentNameIndex.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17668"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David McMillan\Google Drive\PROJECTS\4C_Writing Analysis\4C_Writing-Analysis-in-R\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David McMillan\Google Drive\PROJECTS\4C_QuantWritingAnalysis-in-R_featuredevelopment\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21120" windowHeight="7872"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21120" windowHeight="7872" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="231">
   <si>
     <t>W16 Solutions and Dilutions Reading Quiz (81682)</t>
   </si>
@@ -501,6 +502,222 @@
   </si>
   <si>
     <t>finalGrade</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>SIS User ID</t>
+  </si>
+  <si>
+    <t>SIS Login ID</t>
+  </si>
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>W17 Week 1 Molecular Techniques Post-lab (126874)</t>
+  </si>
+  <si>
+    <t>W17 Week 2 Yeast Genetics Post Lab (126876)</t>
+  </si>
+  <si>
+    <t>W17 Week 3 Yeast Genetics Post-lab (126878)</t>
+  </si>
+  <si>
+    <t>W17 Week 4 Enzyme Assays Post-Lab (126881)</t>
+  </si>
+  <si>
+    <t>W16 Week 5 Enzyme Kinetics Post-Lab (126882)</t>
+  </si>
+  <si>
+    <t>W17 Week 6 E. coli Growth postlab (126884)</t>
+  </si>
+  <si>
+    <t>W17 Week 7 Transcriptional Regulation Post Lab (126886)</t>
+  </si>
+  <si>
+    <t>W17 Week 8 Transcriptional regulation Post lab (126888)</t>
+  </si>
+  <si>
+    <t>Week 9 Plasmid Isolation Post Lab (126892)</t>
+  </si>
+  <si>
+    <t>W16 Week 10 Gel Electrophoresis Post lab (126872)</t>
+  </si>
+  <si>
+    <t>Graphing hardware and software survey (137578)</t>
+  </si>
+  <si>
+    <t>Enzyme Assay Post-Lab Self-Evaluation (138293)</t>
+  </si>
+  <si>
+    <t>Peer evaluation Enzyme Kinetics (126868)</t>
+  </si>
+  <si>
+    <t>Demographic Survey (126842)</t>
+  </si>
+  <si>
+    <t>Week 1 Quantitative Comparative Statement (135980)</t>
+  </si>
+  <si>
+    <t>Meiosis worksheet #4 (136796)</t>
+  </si>
+  <si>
+    <t>Growth graph activity (139069)</t>
+  </si>
+  <si>
+    <t>W17 Week 7 Writing practice (140053)</t>
+  </si>
+  <si>
+    <t>Yeast Genetics Synthesis Quiz (126895)</t>
+  </si>
+  <si>
+    <t>Enzyme Assays Synthesis Quiz (126855)</t>
+  </si>
+  <si>
+    <t>Gene Expression Synthesis Quiz (126861)</t>
+  </si>
+  <si>
+    <t>Final Exam-Transcriptional Regulation (126860)</t>
+  </si>
+  <si>
+    <t>Final Exam-Enzyme Kinetics (126857)</t>
+  </si>
+  <si>
+    <t>Final Exam-Genetics (126859)</t>
+  </si>
+  <si>
+    <t>Final Exam-Genetic Engineering (126858)</t>
+  </si>
+  <si>
+    <t>W17 Week 1 Molecular Techniques Pre-lab (126875)</t>
+  </si>
+  <si>
+    <t>W17 Week 2 Yeast Genetics Pre-lab (126877)</t>
+  </si>
+  <si>
+    <t>W17 Week 3 Yeast Genetics Pre-lab (126879)</t>
+  </si>
+  <si>
+    <t>W17 Week 4 Enzyme Assay Pre-lab (126880)</t>
+  </si>
+  <si>
+    <t>W17 Week 5 Enzyme Kinetics Pre-Lab (126883)</t>
+  </si>
+  <si>
+    <t>W17 Week 6 E. coli Growth Pre-Lab (126885)</t>
+  </si>
+  <si>
+    <t>W16 Week 7 Transcriptional Regulation Pre Lab  (126887)</t>
+  </si>
+  <si>
+    <t>W17 Week 8 Transcriptional Regulation Pre-lab (126889)</t>
+  </si>
+  <si>
+    <t>W16 Week 9 Plasmid Isolation Pre-lab (126890)</t>
+  </si>
+  <si>
+    <t>W16 Week 10 Gel Electrophoresis Prelab (126873)</t>
+  </si>
+  <si>
+    <t>W17 Solutions and Dilutions Reading Quiz (126835)</t>
+  </si>
+  <si>
+    <t>W17 Genetics Reading Quiz (126843)</t>
+  </si>
+  <si>
+    <t>W17 Linkage Analysis Reading Quiz (126841)</t>
+  </si>
+  <si>
+    <t>W17 Enzyme Assays Week 4 Reading Quiz (126845)</t>
+  </si>
+  <si>
+    <t>W17 Week 5 Enzyme Kinetics Reading Quiz (126840)</t>
+  </si>
+  <si>
+    <t>W17 Week 6 E coli Growth Reading Quiz (126846)</t>
+  </si>
+  <si>
+    <t>W17 Week 7 Beta Galactosidase Expression Reading quiz (126847)</t>
+  </si>
+  <si>
+    <t>W17 Week 8 Transcriptional Regulation quiz (139969)</t>
+  </si>
+  <si>
+    <t>W16 Week 8 GE Reading Quiz (125831)</t>
+  </si>
+  <si>
+    <t>W16 Week 9 GE Reading Quiz (126837)</t>
+  </si>
+  <si>
+    <t>W17 Week 10 Gel Electrophoresis Reading quiz (126839)</t>
+  </si>
+  <si>
+    <t>Calculation Quiz 1 (126849)</t>
+  </si>
+  <si>
+    <t>Calculation Quiz 2 (126850)</t>
+  </si>
+  <si>
+    <t>Lab Skills- Microscopy (126864)</t>
+  </si>
+  <si>
+    <t>Lab Skills- Pipetting (126865)</t>
+  </si>
+  <si>
+    <t>Calculation Quiz 3 (126851)</t>
+  </si>
+  <si>
+    <t>Lab Participation (126862)</t>
+  </si>
+  <si>
+    <t>Lab Skills - Dilutions (126863)</t>
+  </si>
+  <si>
+    <t>Yeast Genetics Analysis (126893)</t>
+  </si>
+  <si>
+    <t>Enzyme Kinetics Lab Report (126856)</t>
+  </si>
+  <si>
+    <t>Modeling/Writing Activity W17 (129465)</t>
+  </si>
+  <si>
+    <t>Transcriptional Regulation Lab Analysis (126870)</t>
+  </si>
+  <si>
+    <t>Draft Enzyme Kinetics Lab Analysis (138686)</t>
+  </si>
+  <si>
+    <t>Imported Assignments Current Score</t>
+  </si>
+  <si>
+    <t>Imported Assignments Final Score</t>
+  </si>
+  <si>
+    <t>Current Score</t>
+  </si>
+  <si>
+    <t>(read only)</t>
+  </si>
+  <si>
+    <t>Column Name</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>assignmentYear</t>
+  </si>
+  <si>
+    <t>pointsPossible</t>
+  </si>
+  <si>
+    <t>keepColumn</t>
   </si>
 </sst>
 </file>
@@ -858,8 +1075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1837,4 +2054,1113 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F79"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="55.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C6">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C7">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C8">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C9">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B10" t="s">
+        <v>227</v>
+      </c>
+      <c r="C10">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" t="s">
+        <v>227</v>
+      </c>
+      <c r="C11">
+        <v>16</v>
+      </c>
+      <c r="D11">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B12" t="s">
+        <v>227</v>
+      </c>
+      <c r="C12">
+        <v>16</v>
+      </c>
+      <c r="D12">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>170</v>
+      </c>
+      <c r="B13" t="s">
+        <v>227</v>
+      </c>
+      <c r="C13">
+        <v>14</v>
+      </c>
+      <c r="D13">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>171</v>
+      </c>
+      <c r="B14" t="s">
+        <v>227</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B15" t="s">
+        <v>227</v>
+      </c>
+      <c r="C15">
+        <v>16</v>
+      </c>
+      <c r="D15">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B16" t="s">
+        <v>227</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>174</v>
+      </c>
+      <c r="B17" t="s">
+        <v>227</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>175</v>
+      </c>
+      <c r="B18" t="s">
+        <v>227</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>176</v>
+      </c>
+      <c r="B19" t="s">
+        <v>227</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>177</v>
+      </c>
+      <c r="B20" t="s">
+        <v>227</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>178</v>
+      </c>
+      <c r="B21" t="s">
+        <v>227</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>179</v>
+      </c>
+      <c r="B22" t="s">
+        <v>227</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>180</v>
+      </c>
+      <c r="B23" t="s">
+        <v>227</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>181</v>
+      </c>
+      <c r="B24" t="s">
+        <v>227</v>
+      </c>
+      <c r="C24">
+        <v>30</v>
+      </c>
+      <c r="D24">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>182</v>
+      </c>
+      <c r="B25" t="s">
+        <v>227</v>
+      </c>
+      <c r="C25">
+        <v>30</v>
+      </c>
+      <c r="D25">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>183</v>
+      </c>
+      <c r="B26" t="s">
+        <v>227</v>
+      </c>
+      <c r="C26">
+        <v>30</v>
+      </c>
+      <c r="D26">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>184</v>
+      </c>
+      <c r="B27" t="s">
+        <v>227</v>
+      </c>
+      <c r="C27">
+        <v>30</v>
+      </c>
+      <c r="D27">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>185</v>
+      </c>
+      <c r="B28" t="s">
+        <v>227</v>
+      </c>
+      <c r="C28">
+        <v>30</v>
+      </c>
+      <c r="D28">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>186</v>
+      </c>
+      <c r="B29" t="s">
+        <v>227</v>
+      </c>
+      <c r="C29">
+        <v>30</v>
+      </c>
+      <c r="D29">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>187</v>
+      </c>
+      <c r="B30" t="s">
+        <v>227</v>
+      </c>
+      <c r="C30">
+        <v>30</v>
+      </c>
+      <c r="D30">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>188</v>
+      </c>
+      <c r="B31" t="s">
+        <v>227</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>189</v>
+      </c>
+      <c r="B32" t="s">
+        <v>227</v>
+      </c>
+      <c r="C32">
+        <v>6</v>
+      </c>
+      <c r="D32">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>190</v>
+      </c>
+      <c r="B33" t="s">
+        <v>227</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>191</v>
+      </c>
+      <c r="B34" t="s">
+        <v>227</v>
+      </c>
+      <c r="C34">
+        <v>6</v>
+      </c>
+      <c r="D34">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>192</v>
+      </c>
+      <c r="B35" t="s">
+        <v>227</v>
+      </c>
+      <c r="C35">
+        <v>6</v>
+      </c>
+      <c r="D35">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>193</v>
+      </c>
+      <c r="B36" t="s">
+        <v>227</v>
+      </c>
+      <c r="C36">
+        <v>6</v>
+      </c>
+      <c r="D36">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>194</v>
+      </c>
+      <c r="B37" t="s">
+        <v>227</v>
+      </c>
+      <c r="C37">
+        <v>8</v>
+      </c>
+      <c r="D37">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>195</v>
+      </c>
+      <c r="B38" t="s">
+        <v>227</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>196</v>
+      </c>
+      <c r="B39" t="s">
+        <v>227</v>
+      </c>
+      <c r="C39">
+        <v>6</v>
+      </c>
+      <c r="D39">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>197</v>
+      </c>
+      <c r="B40" t="s">
+        <v>227</v>
+      </c>
+      <c r="C40">
+        <v>5</v>
+      </c>
+      <c r="D40">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>198</v>
+      </c>
+      <c r="B41" t="s">
+        <v>227</v>
+      </c>
+      <c r="C41">
+        <v>10</v>
+      </c>
+      <c r="D41">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>199</v>
+      </c>
+      <c r="B42" t="s">
+        <v>227</v>
+      </c>
+      <c r="C42">
+        <v>10</v>
+      </c>
+      <c r="D42">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>200</v>
+      </c>
+      <c r="B43" t="s">
+        <v>227</v>
+      </c>
+      <c r="C43">
+        <v>10</v>
+      </c>
+      <c r="D43">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>201</v>
+      </c>
+      <c r="B44" t="s">
+        <v>227</v>
+      </c>
+      <c r="C44">
+        <v>10</v>
+      </c>
+      <c r="D44">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>202</v>
+      </c>
+      <c r="B45" t="s">
+        <v>227</v>
+      </c>
+      <c r="C45">
+        <v>10</v>
+      </c>
+      <c r="D45">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>203</v>
+      </c>
+      <c r="B46" t="s">
+        <v>227</v>
+      </c>
+      <c r="C46">
+        <v>10</v>
+      </c>
+      <c r="D46">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>204</v>
+      </c>
+      <c r="B47" t="s">
+        <v>227</v>
+      </c>
+      <c r="C47">
+        <v>10</v>
+      </c>
+      <c r="D47">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>205</v>
+      </c>
+      <c r="B48" t="s">
+        <v>227</v>
+      </c>
+      <c r="C48">
+        <v>10</v>
+      </c>
+      <c r="D48">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>206</v>
+      </c>
+      <c r="B49" t="s">
+        <v>227</v>
+      </c>
+      <c r="C49">
+        <v>13</v>
+      </c>
+      <c r="D49">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>207</v>
+      </c>
+      <c r="B50" t="s">
+        <v>227</v>
+      </c>
+      <c r="C50">
+        <v>10</v>
+      </c>
+      <c r="D50">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>208</v>
+      </c>
+      <c r="B51" t="s">
+        <v>227</v>
+      </c>
+      <c r="C51">
+        <v>10</v>
+      </c>
+      <c r="D51">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>209</v>
+      </c>
+      <c r="B52" t="s">
+        <v>227</v>
+      </c>
+      <c r="C52">
+        <v>11</v>
+      </c>
+      <c r="D52">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>210</v>
+      </c>
+      <c r="B53" t="s">
+        <v>227</v>
+      </c>
+      <c r="C53">
+        <v>10</v>
+      </c>
+      <c r="D53">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>211</v>
+      </c>
+      <c r="B54" t="s">
+        <v>227</v>
+      </c>
+      <c r="C54">
+        <v>10</v>
+      </c>
+      <c r="D54">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>212</v>
+      </c>
+      <c r="B55" t="s">
+        <v>227</v>
+      </c>
+      <c r="C55">
+        <v>10</v>
+      </c>
+      <c r="D55">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>213</v>
+      </c>
+      <c r="B56" t="s">
+        <v>227</v>
+      </c>
+      <c r="C56">
+        <v>10</v>
+      </c>
+      <c r="D56">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>214</v>
+      </c>
+      <c r="B57" t="s">
+        <v>227</v>
+      </c>
+      <c r="C57">
+        <v>40</v>
+      </c>
+      <c r="D57">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>215</v>
+      </c>
+      <c r="B58" t="s">
+        <v>227</v>
+      </c>
+      <c r="C58">
+        <v>10</v>
+      </c>
+      <c r="D58">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>216</v>
+      </c>
+      <c r="B59" t="s">
+        <v>227</v>
+      </c>
+      <c r="C59">
+        <v>30</v>
+      </c>
+      <c r="D59">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>217</v>
+      </c>
+      <c r="B60" t="s">
+        <v>227</v>
+      </c>
+      <c r="C60">
+        <v>45</v>
+      </c>
+      <c r="D60">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>218</v>
+      </c>
+      <c r="B61" t="s">
+        <v>227</v>
+      </c>
+      <c r="C61">
+        <v>20</v>
+      </c>
+      <c r="D61">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>219</v>
+      </c>
+      <c r="B62" t="s">
+        <v>227</v>
+      </c>
+      <c r="C62">
+        <v>50</v>
+      </c>
+      <c r="D62">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>220</v>
+      </c>
+      <c r="B63" t="s">
+        <v>227</v>
+      </c>
+      <c r="C63">
+        <v>5</v>
+      </c>
+      <c r="D63">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>221</v>
+      </c>
+      <c r="B64" t="s">
+        <v>226</v>
+      </c>
+      <c r="C64" t="s">
+        <v>224</v>
+      </c>
+      <c r="D64">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>222</v>
+      </c>
+      <c r="B65" t="s">
+        <v>226</v>
+      </c>
+      <c r="C65" t="s">
+        <v>224</v>
+      </c>
+      <c r="D65">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>59</v>
+      </c>
+      <c r="B66" t="s">
+        <v>226</v>
+      </c>
+      <c r="C66" t="s">
+        <v>224</v>
+      </c>
+      <c r="D66">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>60</v>
+      </c>
+      <c r="B67" t="s">
+        <v>226</v>
+      </c>
+      <c r="C67" t="s">
+        <v>224</v>
+      </c>
+      <c r="D67">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>61</v>
+      </c>
+      <c r="B68" t="s">
+        <v>226</v>
+      </c>
+      <c r="C68" t="s">
+        <v>224</v>
+      </c>
+      <c r="D68">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>62</v>
+      </c>
+      <c r="B69" t="s">
+        <v>226</v>
+      </c>
+      <c r="C69" t="s">
+        <v>224</v>
+      </c>
+      <c r="D69">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>65</v>
+      </c>
+      <c r="B70" t="s">
+        <v>226</v>
+      </c>
+      <c r="C70" t="s">
+        <v>224</v>
+      </c>
+      <c r="D70">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>66</v>
+      </c>
+      <c r="B71" t="s">
+        <v>226</v>
+      </c>
+      <c r="C71" t="s">
+        <v>224</v>
+      </c>
+      <c r="D71">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>63</v>
+      </c>
+      <c r="B72" t="s">
+        <v>226</v>
+      </c>
+      <c r="C72" t="s">
+        <v>224</v>
+      </c>
+      <c r="D72">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>64</v>
+      </c>
+      <c r="B73" t="s">
+        <v>226</v>
+      </c>
+      <c r="C73" t="s">
+        <v>224</v>
+      </c>
+      <c r="D73">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>67</v>
+      </c>
+      <c r="B74" t="s">
+        <v>226</v>
+      </c>
+      <c r="C74" t="s">
+        <v>224</v>
+      </c>
+      <c r="D74">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>68</v>
+      </c>
+      <c r="B75" t="s">
+        <v>226</v>
+      </c>
+      <c r="C75" t="s">
+        <v>224</v>
+      </c>
+      <c r="D75">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>69</v>
+      </c>
+      <c r="B76" t="s">
+        <v>226</v>
+      </c>
+      <c r="C76" t="s">
+        <v>224</v>
+      </c>
+      <c r="D76">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>70</v>
+      </c>
+      <c r="B77" t="s">
+        <v>226</v>
+      </c>
+      <c r="C77" t="s">
+        <v>224</v>
+      </c>
+      <c r="D77">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>223</v>
+      </c>
+      <c r="B78" t="s">
+        <v>226</v>
+      </c>
+      <c r="C78" t="s">
+        <v>224</v>
+      </c>
+      <c r="D78">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>71</v>
+      </c>
+      <c r="B79" t="s">
+        <v>226</v>
+      </c>
+      <c r="C79" t="s">
+        <v>224</v>
+      </c>
+      <c r="D79">
+        <v>2017</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>